--- a/Summary of instructions and devices.xlsx
+++ b/Summary of instructions and devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kaust-my.sharepoint.com/personal/yangk0a_kaust_edu_sa/Documents/CS 294V System Architecture and Performance/course project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4617D11C-3B11-3248-9963-B667FDD7E1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{4617D11C-3B11-3248-9963-B667FDD7E1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF19C52-9C65-2244-810A-F6DC49480EE2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{03076082-ED8F-D144-9793-715E86BFE75C}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{03076082-ED8F-D144-9793-715E86BFE75C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary of instructions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>instruction fetche and decode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>Instructions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program counter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AD9486-EC37-2245-A2FF-6C597DAA00BF}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1266,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1211AE3C-8723-1849-83ED-30FF6C8046F8}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1335,11 +1339,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E21" si="0">B3*D3</f>
+        <f t="shared" ref="E3:E22" si="0">B3*D3</f>
         <v>200</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F21" si="1">C3*D3</f>
+        <f t="shared" ref="F3:F22" si="1">C3*D3</f>
         <v>0.5</v>
       </c>
     </row>
@@ -1521,7 +1525,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2">
         <v>200</v>
@@ -1530,152 +1534,152 @@
         <v>0.05</v>
       </c>
       <c r="D12" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="C13" s="2">
-        <v>4.5</v>
+        <v>0.05</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
-        <v>100</v>
+        <v>4500</v>
       </c>
       <c r="C14" s="2">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>4500</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C16" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="C17" s="2">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
-        <v>150</v>
+        <v>20000</v>
       </c>
       <c r="C18" s="2">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>20000</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2">
         <v>150</v>
@@ -1697,65 +1701,87 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2">
-        <v>20000</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>150</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2">
-        <v>400</v>
+        <v>20000</v>
       </c>
       <c r="C21" s="2">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>20000</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2">
+        <v>400</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <f>SUM(D2:D21)</f>
-        <v>40</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" ref="E22:F22" si="2">SUM(E2:E21)</f>
-        <v>121000</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <f>SUM(D2:D22)</f>
+        <v>41</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:F23" si="2">SUM(E2:E22)</f>
+        <v>121200</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" si="2"/>
-        <v>49.650000000000006</v>
+        <v>49.7</v>
       </c>
     </row>
   </sheetData>
